--- a/Scores/2017-09-19.xlsx
+++ b/Scores/2017-09-19.xlsx
@@ -29,7 +29,7 @@
     <t>Player</t>
   </si>
   <si>
-    <t>Last Game</t>
+    <t>Date</t>
   </si>
   <si>
     <t>Score</t>
@@ -41,36 +41,36 @@
     <t>ZHAO Hai</t>
   </si>
   <si>
+    <t>DUAN Wenqiang</t>
+  </si>
+  <si>
+    <t>WU Xiaokang</t>
+  </si>
+  <si>
+    <t>XUE Shumei</t>
+  </si>
+  <si>
     <t>ZHANG Mingli</t>
   </si>
   <si>
-    <t>DUAN Wenqiang</t>
-  </si>
-  <si>
-    <t>XUE Shumei</t>
-  </si>
-  <si>
-    <t>WU Xiaokang</t>
-  </si>
-  <si>
     <t>ZHAN Wei</t>
   </si>
   <si>
     <t>ZHANG Chaojiong</t>
   </si>
   <si>
+    <t>BONAITI Gabriele</t>
+  </si>
+  <si>
+    <t>ZHANG Ruoyu</t>
+  </si>
+  <si>
     <t>XIAO Xudong</t>
   </si>
   <si>
-    <t>ZHANG Ruoyu</t>
-  </si>
-  <si>
     <t>QIN Song</t>
   </si>
   <si>
-    <t>BONAITI Gabriele</t>
-  </si>
-  <si>
     <t>LIN Feng</t>
   </si>
   <si>
@@ -83,6 +83,9 @@
     <t>LIU Duan</t>
   </si>
   <si>
+    <t>LU JianQiang</t>
+  </si>
+  <si>
     <t>ZENG ZiZhen</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
     <t>LI ZiShuo</t>
   </si>
   <si>
-    <t>LU JianQiang</t>
-  </si>
-  <si>
     <t>姓名</t>
   </si>
   <si>
@@ -104,28 +104,28 @@
     <t>赵海</t>
   </si>
   <si>
+    <t>段文强</t>
+  </si>
+  <si>
+    <t>吴小康</t>
+  </si>
+  <si>
+    <t>薛淑梅</t>
+  </si>
+  <si>
     <t>张明礼</t>
   </si>
   <si>
-    <t>段文强</t>
-  </si>
-  <si>
-    <t>薛淑梅</t>
-  </si>
-  <si>
-    <t>吴小康</t>
-  </si>
-  <si>
     <t>詹卫</t>
   </si>
   <si>
     <t>张超迥</t>
   </si>
   <si>
+    <t>张若愚</t>
+  </si>
+  <si>
     <t>肖旭东</t>
-  </si>
-  <si>
-    <t>张若愚</t>
   </si>
   <si>
     <t>秦松</t>
@@ -162,7 +162,7 @@
   <numFmts count="1">
     <numFmt numFmtId="169" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -175,27 +175,6 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="SimSun"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="SimSun"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="SimSun"/>
     </font>
     <font>
       <sz val="11"/>
@@ -279,46 +258,34 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -603,310 +570,312 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="13"/>
-    <col min="2" max="2" width="18.26953125" style="13" customWidth="1"/>
-    <col min="3" max="3" width="12.90625" style="13" customWidth="1"/>
-    <col min="4" max="4" width="8.7265625" style="13"/>
+    <col min="1" max="1" width="9.453125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="17.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.453125" customWidth="1"/>
+    <col min="4" max="4" width="5.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="9">
         <v>42997</v>
       </c>
-      <c r="D2" s="9">
-        <v>1906</v>
+      <c r="D2" s="1">
+        <v>1905</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="9">
         <v>42997</v>
       </c>
-      <c r="D3" s="9">
-        <v>1850</v>
+      <c r="D3" s="1">
+        <v>1814</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="10">
-        <v>42990</v>
-      </c>
-      <c r="D4" s="9">
-        <v>1809</v>
+      <c r="C4" s="9">
+        <v>42981</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1791</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="10">
-        <v>42981</v>
-      </c>
-      <c r="D5" s="9">
-        <v>1791</v>
+      <c r="C5" s="9">
+        <v>42997</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1787</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="9">
         <v>42997</v>
       </c>
-      <c r="D6" s="9">
-        <v>1758</v>
+      <c r="D6" s="1">
+        <v>1760</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="9">
+        <v>42990</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="9">
+        <v>42981</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="9">
         <v>42997</v>
       </c>
-      <c r="D7" s="9">
-        <v>1757</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="10">
+      <c r="D9" s="1">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="9">
+        <v>42990</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1673</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="9">
+        <v>42985</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1639</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="9">
+        <v>42985</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="9">
+        <v>42985</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="9">
+        <v>42985</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1587</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="9">
+        <v>42985</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1583</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="9">
+        <v>42981</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="9">
         <v>42997</v>
       </c>
-      <c r="D8" s="9">
-        <v>1712</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="10">
-        <v>42981</v>
-      </c>
-      <c r="D9" s="9">
-        <v>1688</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="10">
-        <v>42985</v>
-      </c>
-      <c r="D10" s="9">
-        <v>1661</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="10">
-        <v>42985</v>
-      </c>
-      <c r="D11" s="9">
-        <v>1590</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="10">
-        <v>42985</v>
-      </c>
-      <c r="D12" s="9">
-        <v>1586</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="3"/>
-      <c r="B13" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="10">
-        <v>42990</v>
-      </c>
-      <c r="D13" s="9">
-        <v>1585</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="10">
-        <v>42985</v>
-      </c>
-      <c r="D14" s="9">
-        <v>1585</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="10">
-        <v>42985</v>
-      </c>
-      <c r="D15" s="9">
-        <v>1581</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="10">
-        <v>42981</v>
-      </c>
-      <c r="D16" s="9">
-        <v>1570</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="10">
+      <c r="D17" s="1">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="9">
         <v>42997</v>
       </c>
-      <c r="D17" s="9">
-        <v>1541</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="11" t="s">
+      <c r="D18" s="1">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="9">
+        <v>42983</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="10">
+      <c r="B20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="9">
         <v>42997</v>
       </c>
-      <c r="D18" s="9">
-        <v>1445</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="10">
-        <v>42997</v>
-      </c>
-      <c r="D19" s="9">
-        <v>1445</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="10">
-        <v>42997</v>
-      </c>
-      <c r="D20" s="9">
+      <c r="D20" s="1">
         <v>1445</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" s="10">
-        <v>42983</v>
-      </c>
-      <c r="D21" s="9">
+        <v>41</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="9">
+        <v>42997</v>
+      </c>
+      <c r="D21" s="1">
         <v>1445</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:D21">
+    <sortCondition descending="1" ref="D2:D21"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
